--- a/ejemplos/modelos_arbol_individual-masas_mixtas/PpineaQsuber_IFN_3_parcelas.xlsx
+++ b/ejemplos/modelos_arbol_individual-masas_mixtas/PpineaQsuber_IFN_3_parcelas.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,70 +371,75 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Provincia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ID_sp1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>ID_sp2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Anho</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Edad</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Densidad</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Area_basimetrica</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Altura_dominante</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Longitud</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Latitud</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2001_2020</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2021_2040</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2041_2060</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2061_2080</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2081_2100</t>
         </is>
@@ -452,42 +457,45 @@
         </is>
       </c>
       <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
         <v>23</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>46</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>30</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>827.6057040778558</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5.756512499999999</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4.318309886183791</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-5.353444153436934</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>39.62627344504008</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>19.71999362676415</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>19.01989319116072</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>17.80839068742675</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>17.27911943959205</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>16.30893591260404</v>
       </c>
     </row>
@@ -503,39 +511,42 @@
         </is>
       </c>
       <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
         <v>23</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>46</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>65.21815890254555</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5.452308027777777</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>8.085683297180044</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-5.392930508816687</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>36.25542410600512</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>26.71083520251929</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>23.90712337933254</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>22.44217003884325</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>21.95646180059634</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>20.60787801853164</v>
       </c>
     </row>
@@ -551,39 +562,42 @@
         </is>
       </c>
       <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
         <v>23</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>46</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>153.2131585497979</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>7.482057083333333</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>10.67501735662937</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-5.851815747716151</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>36.63286207068924</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>21.62641807389127</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>20.07184952468003</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>18.76265474867699</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>18.40022138864247</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>17.33552621608722</v>
       </c>
     </row>
